--- a/Data/data terbaru.xlsx
+++ b/Data/data terbaru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Proyek1_Kosqu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFE9F1D3-A304-4FC2-A31B-3BFC5A422658}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F219636B-A5B9-4F59-907E-12CCF049B779}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{D0F814F1-1C2B-474E-A368-A9FF1A35487C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5372" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5596" uniqueCount="1765">
   <si>
     <t>ID</t>
   </si>
@@ -5482,6 +5482,9 @@
   </si>
   <si>
     <t>Ujung Berung</t>
+  </si>
+  <si>
+    <t>Kost Marga Puri</t>
   </si>
 </sst>
 </file>
@@ -5858,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C7683B-4069-4271-9FE2-385F4AE4E0E2}">
   <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="S217" sqref="S217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,6 +7030,9 @@
       <c r="S18" t="s">
         <v>1695</v>
       </c>
+      <c r="T18" t="s">
+        <v>30</v>
+      </c>
       <c r="U18" s="3" t="s">
         <v>120</v>
       </c>
@@ -8129,6 +8135,9 @@
       <c r="S35" t="s">
         <v>1703</v>
       </c>
+      <c r="T35" t="s">
+        <v>30</v>
+      </c>
       <c r="U35" s="3" t="s">
         <v>120</v>
       </c>
@@ -8191,6 +8200,9 @@
       <c r="S36" t="s">
         <v>1695</v>
       </c>
+      <c r="T36" t="s">
+        <v>30</v>
+      </c>
       <c r="U36" s="3" t="s">
         <v>120</v>
       </c>
@@ -8253,6 +8265,9 @@
       <c r="S37" t="s">
         <v>1704</v>
       </c>
+      <c r="T37" t="s">
+        <v>30</v>
+      </c>
       <c r="U37" s="3" t="s">
         <v>120</v>
       </c>
@@ -8445,6 +8460,9 @@
       <c r="S40" t="s">
         <v>1706</v>
       </c>
+      <c r="T40" t="s">
+        <v>30</v>
+      </c>
       <c r="U40" s="3" t="s">
         <v>120</v>
       </c>
@@ -8507,6 +8525,9 @@
       <c r="S41" t="s">
         <v>1707</v>
       </c>
+      <c r="T41" t="s">
+        <v>30</v>
+      </c>
       <c r="U41" s="3" t="s">
         <v>120</v>
       </c>
@@ -9486,7 +9507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>464</v>
       </c>
@@ -9671,6 +9692,9 @@
       <c r="S59" t="s">
         <v>30</v>
       </c>
+      <c r="T59" t="s">
+        <v>30</v>
+      </c>
       <c r="U59" s="5" t="s">
         <v>478</v>
       </c>
@@ -9733,6 +9757,9 @@
       <c r="S60" t="s">
         <v>30</v>
       </c>
+      <c r="T60" t="s">
+        <v>30</v>
+      </c>
       <c r="U60" s="5" t="s">
         <v>478</v>
       </c>
@@ -9795,6 +9822,9 @@
       <c r="S61" t="s">
         <v>30</v>
       </c>
+      <c r="T61" t="s">
+        <v>30</v>
+      </c>
       <c r="U61" s="5" t="s">
         <v>478</v>
       </c>
@@ -9857,6 +9887,9 @@
       <c r="S62" t="s">
         <v>30</v>
       </c>
+      <c r="T62" t="s">
+        <v>30</v>
+      </c>
       <c r="U62" s="5" t="s">
         <v>478</v>
       </c>
@@ -9919,6 +9952,9 @@
       <c r="S63" t="s">
         <v>30</v>
       </c>
+      <c r="T63" t="s">
+        <v>30</v>
+      </c>
       <c r="U63" s="5" t="s">
         <v>491</v>
       </c>
@@ -9981,6 +10017,9 @@
       <c r="S64" t="s">
         <v>30</v>
       </c>
+      <c r="T64" t="s">
+        <v>30</v>
+      </c>
       <c r="U64" s="5" t="s">
         <v>491</v>
       </c>
@@ -10050,7 +10089,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>504</v>
       </c>
@@ -10173,6 +10212,9 @@
       <c r="S67" t="s">
         <v>30</v>
       </c>
+      <c r="T67" t="s">
+        <v>30</v>
+      </c>
       <c r="U67" s="5" t="s">
         <v>491</v>
       </c>
@@ -10235,6 +10277,9 @@
       <c r="S68" t="s">
         <v>30</v>
       </c>
+      <c r="T68" t="s">
+        <v>30</v>
+      </c>
       <c r="U68" s="5" t="s">
         <v>491</v>
       </c>
@@ -10297,6 +10342,9 @@
       <c r="S69" t="s">
         <v>30</v>
       </c>
+      <c r="T69" t="s">
+        <v>30</v>
+      </c>
       <c r="U69" s="5" t="s">
         <v>491</v>
       </c>
@@ -10359,6 +10407,9 @@
       <c r="S70" t="s">
         <v>30</v>
       </c>
+      <c r="T70" t="s">
+        <v>30</v>
+      </c>
       <c r="U70" s="5" t="s">
         <v>491</v>
       </c>
@@ -10421,6 +10472,9 @@
       <c r="S71" t="s">
         <v>1722</v>
       </c>
+      <c r="T71" t="s">
+        <v>30</v>
+      </c>
       <c r="U71" s="5" t="s">
         <v>541</v>
       </c>
@@ -10483,6 +10537,9 @@
       <c r="S72" t="s">
         <v>1723</v>
       </c>
+      <c r="T72" t="s">
+        <v>30</v>
+      </c>
       <c r="U72" s="5" t="s">
         <v>541</v>
       </c>
@@ -10545,6 +10602,9 @@
       <c r="S73" t="s">
         <v>30</v>
       </c>
+      <c r="T73" t="s">
+        <v>30</v>
+      </c>
       <c r="U73" s="5" t="s">
         <v>541</v>
       </c>
@@ -10607,6 +10667,9 @@
       <c r="S74" t="s">
         <v>30</v>
       </c>
+      <c r="T74" t="s">
+        <v>30</v>
+      </c>
       <c r="U74" s="5" t="s">
         <v>541</v>
       </c>
@@ -10669,6 +10732,9 @@
       <c r="S75" t="s">
         <v>1724</v>
       </c>
+      <c r="T75" t="s">
+        <v>30</v>
+      </c>
       <c r="U75" s="5" t="s">
         <v>541</v>
       </c>
@@ -10731,6 +10797,9 @@
       <c r="S76" t="s">
         <v>30</v>
       </c>
+      <c r="T76" t="s">
+        <v>30</v>
+      </c>
       <c r="U76" s="5" t="s">
         <v>541</v>
       </c>
@@ -10793,6 +10862,9 @@
       <c r="S77" t="s">
         <v>30</v>
       </c>
+      <c r="T77" t="s">
+        <v>30</v>
+      </c>
       <c r="U77" s="5" t="s">
         <v>541</v>
       </c>
@@ -10855,6 +10927,9 @@
       <c r="S78" t="s">
         <v>1724</v>
       </c>
+      <c r="T78" t="s">
+        <v>30</v>
+      </c>
       <c r="U78" s="5" t="s">
         <v>541</v>
       </c>
@@ -10917,6 +10992,9 @@
       <c r="S79" t="s">
         <v>1725</v>
       </c>
+      <c r="T79" t="s">
+        <v>30</v>
+      </c>
       <c r="U79" s="5" t="s">
         <v>541</v>
       </c>
@@ -10979,6 +11057,9 @@
       <c r="S80" t="s">
         <v>30</v>
       </c>
+      <c r="T80" t="s">
+        <v>30</v>
+      </c>
       <c r="U80" s="5" t="s">
         <v>541</v>
       </c>
@@ -11041,6 +11122,9 @@
       <c r="S81" t="s">
         <v>30</v>
       </c>
+      <c r="T81" t="s">
+        <v>30</v>
+      </c>
       <c r="U81" s="5" t="s">
         <v>541</v>
       </c>
@@ -11103,6 +11187,9 @@
       <c r="S82" t="s">
         <v>30</v>
       </c>
+      <c r="T82" t="s">
+        <v>30</v>
+      </c>
       <c r="U82" s="5" t="s">
         <v>541</v>
       </c>
@@ -11165,6 +11252,9 @@
       <c r="S83" t="s">
         <v>30</v>
       </c>
+      <c r="T83" t="s">
+        <v>30</v>
+      </c>
       <c r="U83" s="5" t="s">
         <v>541</v>
       </c>
@@ -11227,6 +11317,9 @@
       <c r="S84" t="s">
         <v>30</v>
       </c>
+      <c r="T84" t="s">
+        <v>30</v>
+      </c>
       <c r="U84" s="5" t="s">
         <v>541</v>
       </c>
@@ -11289,6 +11382,9 @@
       <c r="S85" t="s">
         <v>1726</v>
       </c>
+      <c r="T85" t="s">
+        <v>30</v>
+      </c>
       <c r="U85" s="5" t="s">
         <v>541</v>
       </c>
@@ -11351,6 +11447,9 @@
       <c r="S86" t="s">
         <v>1727</v>
       </c>
+      <c r="T86" t="s">
+        <v>30</v>
+      </c>
       <c r="U86" s="5" t="s">
         <v>541</v>
       </c>
@@ -11413,6 +11512,9 @@
       <c r="S87" t="s">
         <v>1728</v>
       </c>
+      <c r="T87" t="s">
+        <v>30</v>
+      </c>
       <c r="U87" s="5" t="s">
         <v>541</v>
       </c>
@@ -11475,6 +11577,9 @@
       <c r="S88" t="s">
         <v>30</v>
       </c>
+      <c r="T88" t="s">
+        <v>30</v>
+      </c>
       <c r="U88" s="5" t="s">
         <v>541</v>
       </c>
@@ -11537,6 +11642,9 @@
       <c r="S89" t="s">
         <v>1727</v>
       </c>
+      <c r="T89" t="s">
+        <v>30</v>
+      </c>
       <c r="U89" s="5" t="s">
         <v>541</v>
       </c>
@@ -11599,6 +11707,9 @@
       <c r="S90" t="s">
         <v>30</v>
       </c>
+      <c r="T90" t="s">
+        <v>30</v>
+      </c>
       <c r="U90" s="5" t="s">
         <v>541</v>
       </c>
@@ -11661,6 +11772,9 @@
       <c r="S91" t="s">
         <v>1729</v>
       </c>
+      <c r="T91" t="s">
+        <v>30</v>
+      </c>
       <c r="U91" s="5" t="s">
         <v>541</v>
       </c>
@@ -11723,6 +11837,9 @@
       <c r="S92" t="s">
         <v>1730</v>
       </c>
+      <c r="T92" t="s">
+        <v>30</v>
+      </c>
       <c r="U92" s="5" t="s">
         <v>541</v>
       </c>
@@ -11785,6 +11902,9 @@
       <c r="S93" t="s">
         <v>30</v>
       </c>
+      <c r="T93" t="s">
+        <v>30</v>
+      </c>
       <c r="U93" s="5" t="s">
         <v>541</v>
       </c>
@@ -11847,6 +11967,9 @@
       <c r="S94" t="s">
         <v>30</v>
       </c>
+      <c r="T94" t="s">
+        <v>30</v>
+      </c>
       <c r="U94" s="5" t="s">
         <v>541</v>
       </c>
@@ -11909,6 +12032,9 @@
       <c r="S95" t="s">
         <v>1723</v>
       </c>
+      <c r="T95" t="s">
+        <v>30</v>
+      </c>
       <c r="U95" s="5" t="s">
         <v>541</v>
       </c>
@@ -11971,6 +12097,9 @@
       <c r="S96" t="s">
         <v>1731</v>
       </c>
+      <c r="T96" t="s">
+        <v>30</v>
+      </c>
       <c r="U96" s="5" t="s">
         <v>541</v>
       </c>
@@ -12033,6 +12162,9 @@
       <c r="S97" t="s">
         <v>30</v>
       </c>
+      <c r="T97" t="s">
+        <v>30</v>
+      </c>
       <c r="U97" s="5" t="s">
         <v>541</v>
       </c>
@@ -12095,6 +12227,9 @@
       <c r="S98" t="s">
         <v>30</v>
       </c>
+      <c r="T98" t="s">
+        <v>30</v>
+      </c>
       <c r="U98" s="5" t="s">
         <v>541</v>
       </c>
@@ -12157,6 +12292,9 @@
       <c r="S99" t="s">
         <v>30</v>
       </c>
+      <c r="T99" t="s">
+        <v>30</v>
+      </c>
       <c r="U99" s="5" t="s">
         <v>541</v>
       </c>
@@ -12219,6 +12357,9 @@
       <c r="S100" t="s">
         <v>30</v>
       </c>
+      <c r="T100" t="s">
+        <v>30</v>
+      </c>
       <c r="U100" s="5" t="s">
         <v>541</v>
       </c>
@@ -12281,6 +12422,9 @@
       <c r="S101" t="s">
         <v>1732</v>
       </c>
+      <c r="T101" t="s">
+        <v>30</v>
+      </c>
       <c r="U101" s="5" t="s">
         <v>541</v>
       </c>
@@ -12343,6 +12487,9 @@
       <c r="S102" t="s">
         <v>30</v>
       </c>
+      <c r="T102" t="s">
+        <v>30</v>
+      </c>
       <c r="U102" s="5" t="s">
         <v>541</v>
       </c>
@@ -12405,6 +12552,9 @@
       <c r="S103" t="s">
         <v>30</v>
       </c>
+      <c r="T103" t="s">
+        <v>30</v>
+      </c>
       <c r="U103" s="5" t="s">
         <v>541</v>
       </c>
@@ -12467,6 +12617,9 @@
       <c r="S104" t="s">
         <v>30</v>
       </c>
+      <c r="T104" t="s">
+        <v>30</v>
+      </c>
       <c r="U104" s="5" t="s">
         <v>541</v>
       </c>
@@ -12529,6 +12682,9 @@
       <c r="S105" t="s">
         <v>30</v>
       </c>
+      <c r="T105" t="s">
+        <v>30</v>
+      </c>
       <c r="U105" s="5" t="s">
         <v>541</v>
       </c>
@@ -12591,6 +12747,9 @@
       <c r="S106" t="s">
         <v>30</v>
       </c>
+      <c r="T106" t="s">
+        <v>30</v>
+      </c>
       <c r="U106" s="5" t="s">
         <v>541</v>
       </c>
@@ -12653,6 +12812,9 @@
       <c r="S107" t="s">
         <v>30</v>
       </c>
+      <c r="T107" t="s">
+        <v>30</v>
+      </c>
       <c r="U107" s="5" t="s">
         <v>541</v>
       </c>
@@ -12715,6 +12877,9 @@
       <c r="S108" t="s">
         <v>1732</v>
       </c>
+      <c r="T108" t="s">
+        <v>30</v>
+      </c>
       <c r="U108" s="5" t="s">
         <v>541</v>
       </c>
@@ -12777,6 +12942,9 @@
       <c r="S109" t="s">
         <v>30</v>
       </c>
+      <c r="T109" t="s">
+        <v>30</v>
+      </c>
       <c r="U109" s="5" t="s">
         <v>541</v>
       </c>
@@ -12839,6 +13007,9 @@
       <c r="S110" t="s">
         <v>30</v>
       </c>
+      <c r="T110" t="s">
+        <v>30</v>
+      </c>
       <c r="U110" s="5" t="s">
         <v>541</v>
       </c>
@@ -12901,6 +13072,9 @@
       <c r="S111" t="s">
         <v>30</v>
       </c>
+      <c r="T111" t="s">
+        <v>30</v>
+      </c>
       <c r="U111" s="5" t="s">
         <v>541</v>
       </c>
@@ -12963,6 +13137,9 @@
       <c r="S112" t="s">
         <v>30</v>
       </c>
+      <c r="T112" t="s">
+        <v>30</v>
+      </c>
       <c r="U112" s="5" t="s">
         <v>541</v>
       </c>
@@ -13025,6 +13202,9 @@
       <c r="S113" t="s">
         <v>30</v>
       </c>
+      <c r="T113" t="s">
+        <v>30</v>
+      </c>
       <c r="U113" s="5" t="s">
         <v>541</v>
       </c>
@@ -13087,6 +13267,9 @@
       <c r="S114" t="s">
         <v>1733</v>
       </c>
+      <c r="T114" t="s">
+        <v>30</v>
+      </c>
       <c r="U114" s="5" t="s">
         <v>541</v>
       </c>
@@ -13149,6 +13332,9 @@
       <c r="S115" t="s">
         <v>30</v>
       </c>
+      <c r="T115" t="s">
+        <v>30</v>
+      </c>
       <c r="U115" s="5" t="s">
         <v>541</v>
       </c>
@@ -13211,6 +13397,9 @@
       <c r="S116" t="s">
         <v>30</v>
       </c>
+      <c r="T116" t="s">
+        <v>30</v>
+      </c>
       <c r="U116" s="5" t="s">
         <v>541</v>
       </c>
@@ -13273,6 +13462,9 @@
       <c r="S117" t="s">
         <v>1729</v>
       </c>
+      <c r="T117" t="s">
+        <v>30</v>
+      </c>
       <c r="U117" s="5" t="s">
         <v>541</v>
       </c>
@@ -13335,6 +13527,9 @@
       <c r="S118" t="s">
         <v>30</v>
       </c>
+      <c r="T118" t="s">
+        <v>30</v>
+      </c>
       <c r="U118" s="5" t="s">
         <v>541</v>
       </c>
@@ -13397,6 +13592,9 @@
       <c r="S119" t="s">
         <v>30</v>
       </c>
+      <c r="T119" t="s">
+        <v>30</v>
+      </c>
       <c r="U119" s="5" t="s">
         <v>541</v>
       </c>
@@ -13459,6 +13657,9 @@
       <c r="S120" t="s">
         <v>757</v>
       </c>
+      <c r="T120" t="s">
+        <v>30</v>
+      </c>
       <c r="U120" s="5" t="s">
         <v>541</v>
       </c>
@@ -13521,6 +13722,9 @@
       <c r="S121" t="s">
         <v>1734</v>
       </c>
+      <c r="T121" t="s">
+        <v>30</v>
+      </c>
       <c r="U121" s="5" t="s">
         <v>541</v>
       </c>
@@ -13583,6 +13787,9 @@
       <c r="S122" t="s">
         <v>30</v>
       </c>
+      <c r="T122" t="s">
+        <v>30</v>
+      </c>
       <c r="U122" s="5" t="s">
         <v>541</v>
       </c>
@@ -13645,6 +13852,9 @@
       <c r="S123" t="s">
         <v>30</v>
       </c>
+      <c r="T123" t="s">
+        <v>30</v>
+      </c>
       <c r="U123" s="5" t="s">
         <v>541</v>
       </c>
@@ -13707,6 +13917,9 @@
       <c r="S124" t="s">
         <v>1730</v>
       </c>
+      <c r="T124" t="s">
+        <v>30</v>
+      </c>
       <c r="U124" s="5" t="s">
         <v>541</v>
       </c>
@@ -13769,6 +13982,9 @@
       <c r="S125" t="s">
         <v>30</v>
       </c>
+      <c r="T125" t="s">
+        <v>30</v>
+      </c>
       <c r="U125" s="5" t="s">
         <v>541</v>
       </c>
@@ -13831,6 +14047,9 @@
       <c r="S126" t="s">
         <v>1735</v>
       </c>
+      <c r="T126" t="s">
+        <v>30</v>
+      </c>
       <c r="U126" s="5" t="s">
         <v>541</v>
       </c>
@@ -13893,6 +14112,9 @@
       <c r="S127" t="s">
         <v>1736</v>
       </c>
+      <c r="T127" t="s">
+        <v>30</v>
+      </c>
       <c r="U127" s="5" t="s">
         <v>541</v>
       </c>
@@ -13955,6 +14177,9 @@
       <c r="S128" t="s">
         <v>30</v>
       </c>
+      <c r="T128" t="s">
+        <v>30</v>
+      </c>
       <c r="U128" s="5" t="s">
         <v>541</v>
       </c>
@@ -14017,6 +14242,9 @@
       <c r="S129" t="s">
         <v>30</v>
       </c>
+      <c r="T129" t="s">
+        <v>30</v>
+      </c>
       <c r="U129" s="5" t="s">
         <v>541</v>
       </c>
@@ -14079,6 +14307,9 @@
       <c r="S130" t="s">
         <v>1732</v>
       </c>
+      <c r="T130" t="s">
+        <v>30</v>
+      </c>
       <c r="U130" s="5" t="s">
         <v>541</v>
       </c>
@@ -14141,6 +14372,9 @@
       <c r="S131" t="s">
         <v>1730</v>
       </c>
+      <c r="T131" t="s">
+        <v>30</v>
+      </c>
       <c r="U131" s="5" t="s">
         <v>541</v>
       </c>
@@ -14203,6 +14437,9 @@
       <c r="S132" t="s">
         <v>1737</v>
       </c>
+      <c r="T132" t="s">
+        <v>30</v>
+      </c>
       <c r="U132" s="5" t="s">
         <v>541</v>
       </c>
@@ -14265,6 +14502,9 @@
       <c r="S133" t="s">
         <v>1738</v>
       </c>
+      <c r="T133" t="s">
+        <v>30</v>
+      </c>
       <c r="U133" s="5" t="s">
         <v>805</v>
       </c>
@@ -14327,6 +14567,9 @@
       <c r="S134" t="s">
         <v>1738</v>
       </c>
+      <c r="T134" t="s">
+        <v>30</v>
+      </c>
       <c r="U134" s="5" t="s">
         <v>805</v>
       </c>
@@ -14389,11 +14632,14 @@
       <c r="S135" t="s">
         <v>30</v>
       </c>
+      <c r="T135" t="s">
+        <v>30</v>
+      </c>
       <c r="U135" s="5" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>816</v>
       </c>
@@ -14451,11 +14697,14 @@
       <c r="S136" t="s">
         <v>30</v>
       </c>
+      <c r="T136" t="s">
+        <v>30</v>
+      </c>
       <c r="U136" s="5" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>823</v>
       </c>
@@ -14511,6 +14760,9 @@
         <v>490</v>
       </c>
       <c r="S137" t="s">
+        <v>30</v>
+      </c>
+      <c r="T137" t="s">
         <v>30</v>
       </c>
       <c r="U137" s="5" t="s">
@@ -14575,6 +14827,9 @@
       <c r="S138" t="s">
         <v>30</v>
       </c>
+      <c r="T138" t="s">
+        <v>30</v>
+      </c>
       <c r="U138" s="5" t="s">
         <v>805</v>
       </c>
@@ -14637,6 +14892,9 @@
       <c r="S139" t="s">
         <v>30</v>
       </c>
+      <c r="T139" t="s">
+        <v>30</v>
+      </c>
       <c r="U139" s="5" t="s">
         <v>842</v>
       </c>
@@ -14699,6 +14957,9 @@
       <c r="S140" t="s">
         <v>30</v>
       </c>
+      <c r="T140" t="s">
+        <v>30</v>
+      </c>
       <c r="U140" s="5" t="s">
         <v>30</v>
       </c>
@@ -14761,6 +15022,9 @@
       <c r="S141" t="s">
         <v>853</v>
       </c>
+      <c r="T141" t="s">
+        <v>30</v>
+      </c>
       <c r="U141" s="5" t="s">
         <v>842</v>
       </c>
@@ -14823,6 +15087,9 @@
       <c r="S142" t="s">
         <v>30</v>
       </c>
+      <c r="T142" t="s">
+        <v>30</v>
+      </c>
       <c r="U142" s="5" t="s">
         <v>842</v>
       </c>
@@ -14885,6 +15152,9 @@
       <c r="S143" t="s">
         <v>30</v>
       </c>
+      <c r="T143" t="s">
+        <v>30</v>
+      </c>
       <c r="U143" s="5" t="s">
         <v>842</v>
       </c>
@@ -14947,6 +15217,9 @@
       <c r="S144" t="s">
         <v>30</v>
       </c>
+      <c r="T144" t="s">
+        <v>30</v>
+      </c>
       <c r="U144" s="5" t="s">
         <v>842</v>
       </c>
@@ -15009,6 +15282,9 @@
       <c r="S145" t="s">
         <v>30</v>
       </c>
+      <c r="T145" t="s">
+        <v>30</v>
+      </c>
       <c r="U145" s="5" t="s">
         <v>842</v>
       </c>
@@ -15071,6 +15347,9 @@
       <c r="S146" t="s">
         <v>30</v>
       </c>
+      <c r="T146" t="s">
+        <v>30</v>
+      </c>
       <c r="U146" s="5" t="s">
         <v>30</v>
       </c>
@@ -15133,6 +15412,9 @@
       <c r="S147" t="s">
         <v>881</v>
       </c>
+      <c r="T147" t="s">
+        <v>30</v>
+      </c>
       <c r="U147" s="5" t="s">
         <v>842</v>
       </c>
@@ -15195,6 +15477,9 @@
       <c r="S148" t="s">
         <v>30</v>
       </c>
+      <c r="T148" t="s">
+        <v>30</v>
+      </c>
       <c r="U148" s="5" t="s">
         <v>30</v>
       </c>
@@ -15257,6 +15542,9 @@
       <c r="S149" t="s">
         <v>30</v>
       </c>
+      <c r="T149" t="s">
+        <v>30</v>
+      </c>
       <c r="U149" s="5" t="s">
         <v>842</v>
       </c>
@@ -15319,6 +15607,9 @@
       <c r="S150" t="s">
         <v>30</v>
       </c>
+      <c r="T150" t="s">
+        <v>30</v>
+      </c>
       <c r="U150" s="5" t="s">
         <v>842</v>
       </c>
@@ -15381,6 +15672,9 @@
       <c r="S151" t="s">
         <v>30</v>
       </c>
+      <c r="T151" t="s">
+        <v>30</v>
+      </c>
       <c r="U151" s="5" t="s">
         <v>842</v>
       </c>
@@ -15443,6 +15737,9 @@
       <c r="S152" t="s">
         <v>30</v>
       </c>
+      <c r="T152" t="s">
+        <v>30</v>
+      </c>
       <c r="U152" s="5" t="s">
         <v>842</v>
       </c>
@@ -15505,6 +15802,9 @@
       <c r="S153" t="s">
         <v>30</v>
       </c>
+      <c r="T153" t="s">
+        <v>30</v>
+      </c>
       <c r="U153" s="5" t="s">
         <v>30</v>
       </c>
@@ -15567,6 +15867,9 @@
       <c r="S154" t="s">
         <v>30</v>
       </c>
+      <c r="T154" t="s">
+        <v>30</v>
+      </c>
       <c r="U154" s="5" t="s">
         <v>30</v>
       </c>
@@ -15629,6 +15932,9 @@
       <c r="S155" t="s">
         <v>30</v>
       </c>
+      <c r="T155" t="s">
+        <v>30</v>
+      </c>
       <c r="U155" s="5" t="s">
         <v>30</v>
       </c>
@@ -15691,6 +15997,9 @@
       <c r="S156" t="s">
         <v>30</v>
       </c>
+      <c r="T156" t="s">
+        <v>30</v>
+      </c>
       <c r="U156" s="5" t="s">
         <v>30</v>
       </c>
@@ -15753,6 +16062,9 @@
       <c r="S157" t="s">
         <v>853</v>
       </c>
+      <c r="T157" t="s">
+        <v>30</v>
+      </c>
       <c r="U157" s="5" t="s">
         <v>842</v>
       </c>
@@ -15815,6 +16127,9 @@
       <c r="S158" t="s">
         <v>30</v>
       </c>
+      <c r="T158" t="s">
+        <v>30</v>
+      </c>
       <c r="U158" s="5" t="s">
         <v>842</v>
       </c>
@@ -15823,6 +16138,9 @@
       <c r="A159" t="s">
         <v>932</v>
       </c>
+      <c r="B159" t="s">
+        <v>1764</v>
+      </c>
       <c r="C159" t="s">
         <v>22</v>
       </c>
@@ -15872,6 +16190,9 @@
         <v>1739</v>
       </c>
       <c r="S159" t="s">
+        <v>30</v>
+      </c>
+      <c r="T159" t="s">
         <v>30</v>
       </c>
       <c r="U159" s="5" t="s">
@@ -15936,6 +16257,9 @@
       <c r="S160" t="s">
         <v>30</v>
       </c>
+      <c r="T160" t="s">
+        <v>30</v>
+      </c>
       <c r="U160" s="5" t="s">
         <v>842</v>
       </c>
@@ -15998,6 +16322,9 @@
       <c r="S161" t="s">
         <v>30</v>
       </c>
+      <c r="T161" t="s">
+        <v>30</v>
+      </c>
       <c r="U161" s="5" t="s">
         <v>842</v>
       </c>
@@ -16060,6 +16387,9 @@
       <c r="S162" t="s">
         <v>30</v>
       </c>
+      <c r="T162" t="s">
+        <v>30</v>
+      </c>
       <c r="U162" s="5" t="s">
         <v>842</v>
       </c>
@@ -16122,6 +16452,9 @@
       <c r="S163" t="s">
         <v>30</v>
       </c>
+      <c r="T163" t="s">
+        <v>30</v>
+      </c>
       <c r="U163" s="5" t="s">
         <v>842</v>
       </c>
@@ -16184,6 +16517,9 @@
       <c r="S164" t="s">
         <v>30</v>
       </c>
+      <c r="T164" t="s">
+        <v>30</v>
+      </c>
       <c r="U164" s="5" t="s">
         <v>842</v>
       </c>
@@ -16246,6 +16582,9 @@
       <c r="S165" t="s">
         <v>30</v>
       </c>
+      <c r="T165" t="s">
+        <v>30</v>
+      </c>
       <c r="U165" s="5" t="s">
         <v>842</v>
       </c>
@@ -16308,6 +16647,9 @@
       <c r="S166" t="s">
         <v>30</v>
       </c>
+      <c r="T166" t="s">
+        <v>30</v>
+      </c>
       <c r="U166" s="5" t="s">
         <v>842</v>
       </c>
@@ -16370,6 +16712,9 @@
       <c r="S167" t="s">
         <v>30</v>
       </c>
+      <c r="T167" t="s">
+        <v>30</v>
+      </c>
       <c r="U167" s="5" t="s">
         <v>842</v>
       </c>
@@ -16432,6 +16777,9 @@
       <c r="S168" t="s">
         <v>30</v>
       </c>
+      <c r="T168" t="s">
+        <v>30</v>
+      </c>
       <c r="U168" s="5" t="s">
         <v>842</v>
       </c>
@@ -16494,6 +16842,9 @@
       <c r="S169" t="s">
         <v>30</v>
       </c>
+      <c r="T169" t="s">
+        <v>30</v>
+      </c>
       <c r="U169" s="5" t="s">
         <v>842</v>
       </c>
@@ -16556,6 +16907,9 @@
       <c r="S170" t="s">
         <v>30</v>
       </c>
+      <c r="T170" t="s">
+        <v>30</v>
+      </c>
       <c r="U170" s="5" t="s">
         <v>842</v>
       </c>
@@ -16618,6 +16972,9 @@
       <c r="S171" t="s">
         <v>30</v>
       </c>
+      <c r="T171" t="s">
+        <v>30</v>
+      </c>
       <c r="U171" s="5" t="s">
         <v>842</v>
       </c>
@@ -16680,6 +17037,9 @@
       <c r="S172" t="s">
         <v>30</v>
       </c>
+      <c r="T172" t="s">
+        <v>30</v>
+      </c>
       <c r="U172" s="5" t="s">
         <v>842</v>
       </c>
@@ -16739,6 +17099,9 @@
       <c r="S173" t="s">
         <v>30</v>
       </c>
+      <c r="T173" t="s">
+        <v>30</v>
+      </c>
       <c r="U173" s="5" t="s">
         <v>842</v>
       </c>
@@ -16801,6 +17164,9 @@
       <c r="S174" t="s">
         <v>30</v>
       </c>
+      <c r="T174" t="s">
+        <v>30</v>
+      </c>
       <c r="U174" s="5" t="s">
         <v>1024</v>
       </c>
@@ -16863,6 +17229,9 @@
       <c r="S175" t="s">
         <v>30</v>
       </c>
+      <c r="T175" t="s">
+        <v>30</v>
+      </c>
       <c r="U175" s="5" t="s">
         <v>1024</v>
       </c>
@@ -16925,6 +17294,9 @@
       <c r="S176" t="s">
         <v>30</v>
       </c>
+      <c r="T176" t="s">
+        <v>30</v>
+      </c>
       <c r="U176" s="5" t="s">
         <v>1024</v>
       </c>
@@ -16984,6 +17356,9 @@
       <c r="S177" t="s">
         <v>30</v>
       </c>
+      <c r="T177" t="s">
+        <v>30</v>
+      </c>
       <c r="U177" s="5" t="s">
         <v>1024</v>
       </c>
@@ -17046,6 +17421,9 @@
       <c r="S178" t="s">
         <v>30</v>
       </c>
+      <c r="T178" t="s">
+        <v>30</v>
+      </c>
       <c r="U178" s="5" t="s">
         <v>1024</v>
       </c>
@@ -17108,6 +17486,9 @@
       <c r="S179" t="s">
         <v>30</v>
       </c>
+      <c r="T179" t="s">
+        <v>30</v>
+      </c>
       <c r="U179" s="5" t="s">
         <v>1024</v>
       </c>
@@ -17170,6 +17551,9 @@
       <c r="S180" t="s">
         <v>30</v>
       </c>
+      <c r="T180" t="s">
+        <v>30</v>
+      </c>
       <c r="U180" s="5" t="s">
         <v>1024</v>
       </c>
@@ -17232,6 +17616,9 @@
       <c r="S181" t="s">
         <v>30</v>
       </c>
+      <c r="T181" t="s">
+        <v>30</v>
+      </c>
       <c r="U181" s="5" t="s">
         <v>1024</v>
       </c>
@@ -17294,6 +17681,9 @@
       <c r="S182" t="s">
         <v>30</v>
       </c>
+      <c r="T182" t="s">
+        <v>30</v>
+      </c>
       <c r="U182" s="5" t="s">
         <v>1024</v>
       </c>
@@ -17356,6 +17746,9 @@
       <c r="S183" t="s">
         <v>30</v>
       </c>
+      <c r="T183" t="s">
+        <v>30</v>
+      </c>
       <c r="U183" s="5" t="s">
         <v>1080</v>
       </c>
@@ -17483,6 +17876,9 @@
       <c r="S185" t="s">
         <v>30</v>
       </c>
+      <c r="T185" t="s">
+        <v>30</v>
+      </c>
       <c r="U185" s="5" t="s">
         <v>1099</v>
       </c>
@@ -17545,6 +17941,9 @@
       <c r="S186" t="s">
         <v>30</v>
       </c>
+      <c r="T186" t="s">
+        <v>30</v>
+      </c>
       <c r="U186" s="5" t="s">
         <v>1099</v>
       </c>
@@ -17607,6 +18006,9 @@
       <c r="S187" t="s">
         <v>30</v>
       </c>
+      <c r="T187" t="s">
+        <v>30</v>
+      </c>
       <c r="U187" s="5" t="s">
         <v>1099</v>
       </c>
@@ -17669,6 +18071,9 @@
       <c r="S188" t="s">
         <v>30</v>
       </c>
+      <c r="T188" t="s">
+        <v>30</v>
+      </c>
       <c r="U188" s="5" t="s">
         <v>30</v>
       </c>
@@ -17731,6 +18136,9 @@
       <c r="S189" t="s">
         <v>30</v>
       </c>
+      <c r="T189" t="s">
+        <v>30</v>
+      </c>
       <c r="U189" s="5" t="s">
         <v>1099</v>
       </c>
@@ -17793,6 +18201,9 @@
       <c r="S190" t="s">
         <v>30</v>
       </c>
+      <c r="T190" t="s">
+        <v>30</v>
+      </c>
       <c r="U190" s="5" t="s">
         <v>1099</v>
       </c>
@@ -17855,6 +18266,9 @@
       <c r="S191" t="s">
         <v>30</v>
       </c>
+      <c r="T191" t="s">
+        <v>30</v>
+      </c>
       <c r="U191" s="5" t="s">
         <v>1099</v>
       </c>
@@ -17917,6 +18331,9 @@
       <c r="S192" t="s">
         <v>30</v>
       </c>
+      <c r="T192" t="s">
+        <v>30</v>
+      </c>
       <c r="U192" s="5" t="s">
         <v>1099</v>
       </c>
@@ -17979,6 +18396,9 @@
       <c r="S193" t="s">
         <v>30</v>
       </c>
+      <c r="T193" t="s">
+        <v>30</v>
+      </c>
       <c r="U193" s="5" t="s">
         <v>30</v>
       </c>
@@ -18041,6 +18461,9 @@
       <c r="S194" t="s">
         <v>30</v>
       </c>
+      <c r="T194" t="s">
+        <v>30</v>
+      </c>
       <c r="U194" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18103,6 +18526,9 @@
       <c r="S195" t="s">
         <v>30</v>
       </c>
+      <c r="T195" t="s">
+        <v>30</v>
+      </c>
       <c r="U195" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18165,6 +18591,9 @@
       <c r="S196" t="s">
         <v>30</v>
       </c>
+      <c r="T196" t="s">
+        <v>30</v>
+      </c>
       <c r="U196" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18227,11 +18656,14 @@
       <c r="S197" t="s">
         <v>1742</v>
       </c>
+      <c r="T197" t="s">
+        <v>30</v>
+      </c>
       <c r="U197" s="5" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1187</v>
       </c>
@@ -18287,6 +18719,9 @@
         <v>1098</v>
       </c>
       <c r="S198" t="s">
+        <v>30</v>
+      </c>
+      <c r="T198" t="s">
         <v>30</v>
       </c>
       <c r="U198" s="5" t="s">
@@ -18351,6 +18786,9 @@
       <c r="S199" t="s">
         <v>1743</v>
       </c>
+      <c r="T199" t="s">
+        <v>30</v>
+      </c>
       <c r="U199" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18413,6 +18851,9 @@
       <c r="S200" t="s">
         <v>30</v>
       </c>
+      <c r="T200" t="s">
+        <v>30</v>
+      </c>
       <c r="U200" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18475,6 +18916,9 @@
       <c r="S201" t="s">
         <v>30</v>
       </c>
+      <c r="T201" t="s">
+        <v>30</v>
+      </c>
       <c r="U201" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18537,6 +18981,9 @@
       <c r="S202" t="s">
         <v>30</v>
       </c>
+      <c r="T202" t="s">
+        <v>30</v>
+      </c>
       <c r="U202" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18599,6 +19046,9 @@
       <c r="S203" t="s">
         <v>30</v>
       </c>
+      <c r="T203" t="s">
+        <v>30</v>
+      </c>
       <c r="U203" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18661,6 +19111,9 @@
       <c r="S204" t="s">
         <v>1744</v>
       </c>
+      <c r="T204" t="s">
+        <v>30</v>
+      </c>
       <c r="U204" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18723,6 +19176,9 @@
       <c r="S205" t="s">
         <v>30</v>
       </c>
+      <c r="T205" t="s">
+        <v>30</v>
+      </c>
       <c r="U205" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18785,6 +19241,9 @@
       <c r="S206" t="s">
         <v>30</v>
       </c>
+      <c r="T206" t="s">
+        <v>30</v>
+      </c>
       <c r="U206" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18847,6 +19306,9 @@
       <c r="S207" t="s">
         <v>30</v>
       </c>
+      <c r="T207" t="s">
+        <v>30</v>
+      </c>
       <c r="U207" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18909,6 +19371,9 @@
       <c r="S208" t="s">
         <v>30</v>
       </c>
+      <c r="T208" t="s">
+        <v>30</v>
+      </c>
       <c r="U208" s="5" t="s">
         <v>1099</v>
       </c>
@@ -18971,6 +19436,9 @@
       <c r="S209" t="s">
         <v>30</v>
       </c>
+      <c r="T209" t="s">
+        <v>30</v>
+      </c>
       <c r="U209" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19098,6 +19566,9 @@
       <c r="S211" t="s">
         <v>1745</v>
       </c>
+      <c r="T211" t="s">
+        <v>30</v>
+      </c>
       <c r="U211" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19160,6 +19631,9 @@
       <c r="S212" t="s">
         <v>30</v>
       </c>
+      <c r="T212" t="s">
+        <v>30</v>
+      </c>
       <c r="U212" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19222,6 +19696,9 @@
       <c r="S213" t="s">
         <v>30</v>
       </c>
+      <c r="T213" t="s">
+        <v>30</v>
+      </c>
       <c r="U213" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19284,6 +19761,9 @@
       <c r="S214" t="s">
         <v>30</v>
       </c>
+      <c r="T214" t="s">
+        <v>30</v>
+      </c>
       <c r="U214" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19346,6 +19826,9 @@
       <c r="S215" t="s">
         <v>30</v>
       </c>
+      <c r="T215" t="s">
+        <v>30</v>
+      </c>
       <c r="U215" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19408,6 +19891,9 @@
       <c r="S216" t="s">
         <v>30</v>
       </c>
+      <c r="T216" t="s">
+        <v>30</v>
+      </c>
       <c r="U216" s="5" t="s">
         <v>30</v>
       </c>
@@ -19467,6 +19953,9 @@
       <c r="S217" t="s">
         <v>30</v>
       </c>
+      <c r="T217" t="s">
+        <v>30</v>
+      </c>
       <c r="U217" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19529,6 +20018,9 @@
       <c r="S218" t="s">
         <v>30</v>
       </c>
+      <c r="T218" t="s">
+        <v>30</v>
+      </c>
       <c r="U218" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19591,6 +20083,9 @@
       <c r="S219" t="s">
         <v>30</v>
       </c>
+      <c r="T219" t="s">
+        <v>30</v>
+      </c>
       <c r="U219" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19653,6 +20148,9 @@
       <c r="S220" t="s">
         <v>30</v>
       </c>
+      <c r="T220" t="s">
+        <v>30</v>
+      </c>
       <c r="U220" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19715,6 +20213,9 @@
       <c r="S221" t="s">
         <v>30</v>
       </c>
+      <c r="T221" t="s">
+        <v>30</v>
+      </c>
       <c r="U221" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19784,7 +20285,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="223" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1357</v>
       </c>
@@ -19840,6 +20341,9 @@
         <v>1098</v>
       </c>
       <c r="S223" t="s">
+        <v>30</v>
+      </c>
+      <c r="T223" t="s">
         <v>30</v>
       </c>
       <c r="U223" s="5" t="s">
@@ -19904,6 +20408,9 @@
       <c r="S224" t="s">
         <v>30</v>
       </c>
+      <c r="T224" t="s">
+        <v>30</v>
+      </c>
       <c r="U224" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19966,6 +20473,9 @@
       <c r="S225" t="s">
         <v>30</v>
       </c>
+      <c r="T225" t="s">
+        <v>30</v>
+      </c>
       <c r="U225" s="5" t="s">
         <v>842</v>
       </c>
@@ -20028,6 +20538,9 @@
       <c r="S226" t="s">
         <v>30</v>
       </c>
+      <c r="T226" t="s">
+        <v>30</v>
+      </c>
       <c r="U226" s="5" t="s">
         <v>842</v>
       </c>
@@ -20090,6 +20603,9 @@
       <c r="S227" t="s">
         <v>30</v>
       </c>
+      <c r="T227" t="s">
+        <v>30</v>
+      </c>
       <c r="U227" s="5" t="s">
         <v>842</v>
       </c>
@@ -20152,11 +20668,14 @@
       <c r="S228" t="s">
         <v>30</v>
       </c>
+      <c r="T228" t="s">
+        <v>30</v>
+      </c>
       <c r="U228" s="5" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1398</v>
       </c>
@@ -20214,8 +20733,11 @@
       <c r="S229" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T229" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1409</v>
       </c>
@@ -20273,11 +20795,14 @@
       <c r="S230" t="s">
         <v>1746</v>
       </c>
+      <c r="T230" t="s">
+        <v>30</v>
+      </c>
       <c r="U230" s="5" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1415</v>
       </c>
@@ -20335,11 +20860,14 @@
       <c r="S231" t="s">
         <v>30</v>
       </c>
+      <c r="T231" t="s">
+        <v>30</v>
+      </c>
       <c r="U231" s="5" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1421</v>
       </c>
@@ -20397,11 +20925,14 @@
       <c r="S232" t="s">
         <v>30</v>
       </c>
+      <c r="T232" t="s">
+        <v>30</v>
+      </c>
       <c r="U232" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1428</v>
       </c>
@@ -20459,11 +20990,14 @@
       <c r="S233" t="s">
         <v>30</v>
       </c>
+      <c r="T233" t="s">
+        <v>30</v>
+      </c>
       <c r="U233" s="5" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="234" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1433</v>
       </c>
@@ -20521,11 +21055,14 @@
       <c r="S234" t="s">
         <v>30</v>
       </c>
+      <c r="T234" t="s">
+        <v>30</v>
+      </c>
       <c r="U234" s="5" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="235" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1438</v>
       </c>
@@ -20583,11 +21120,14 @@
       <c r="S235" t="s">
         <v>30</v>
       </c>
+      <c r="T235" t="s">
+        <v>30</v>
+      </c>
       <c r="U235" s="5" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1442</v>
       </c>
@@ -20643,6 +21183,9 @@
         <v>1408</v>
       </c>
       <c r="S236" t="s">
+        <v>30</v>
+      </c>
+      <c r="T236" t="s">
         <v>30</v>
       </c>
       <c r="U236" s="5" t="s">
@@ -20707,6 +21250,9 @@
       <c r="S237" t="s">
         <v>30</v>
       </c>
+      <c r="T237" t="s">
+        <v>30</v>
+      </c>
       <c r="U237" s="5" t="s">
         <v>1414</v>
       </c>
@@ -20769,6 +21315,9 @@
       <c r="S238" t="s">
         <v>30</v>
       </c>
+      <c r="T238" t="s">
+        <v>30</v>
+      </c>
       <c r="U238" s="5" t="s">
         <v>1461</v>
       </c>
@@ -20831,11 +21380,14 @@
       <c r="S239" t="s">
         <v>30</v>
       </c>
+      <c r="T239" t="s">
+        <v>30</v>
+      </c>
       <c r="U239" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1468</v>
       </c>
@@ -20893,11 +21445,14 @@
       <c r="S240" t="s">
         <v>1750</v>
       </c>
+      <c r="T240" t="s">
+        <v>30</v>
+      </c>
       <c r="U240" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="241" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1475</v>
       </c>
@@ -20955,11 +21510,14 @@
       <c r="S241" t="s">
         <v>30</v>
       </c>
+      <c r="T241" t="s">
+        <v>30</v>
+      </c>
       <c r="U241" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1478</v>
       </c>
@@ -21017,11 +21575,14 @@
       <c r="S242" t="s">
         <v>30</v>
       </c>
+      <c r="T242" t="s">
+        <v>30</v>
+      </c>
       <c r="U242" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" ht="270" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1485</v>
       </c>
@@ -21079,11 +21640,14 @@
       <c r="S243" t="s">
         <v>30</v>
       </c>
+      <c r="T243" t="s">
+        <v>30</v>
+      </c>
       <c r="U243" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1490</v>
       </c>
@@ -21140,6 +21704,9 @@
       </c>
       <c r="S244" t="s">
         <v>1752</v>
+      </c>
+      <c r="T244" t="s">
+        <v>30</v>
       </c>
       <c r="U244" s="5" t="s">
         <v>1461</v>
@@ -21203,11 +21770,14 @@
       <c r="S245" t="s">
         <v>1752</v>
       </c>
+      <c r="T245" t="s">
+        <v>30</v>
+      </c>
       <c r="U245" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1499</v>
       </c>
@@ -21265,11 +21835,14 @@
       <c r="S246" t="s">
         <v>30</v>
       </c>
+      <c r="T246" t="s">
+        <v>30</v>
+      </c>
       <c r="U246" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1505</v>
       </c>
@@ -21327,11 +21900,14 @@
       <c r="S247" t="s">
         <v>30</v>
       </c>
+      <c r="T247" t="s">
+        <v>30</v>
+      </c>
       <c r="U247" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1508</v>
       </c>
@@ -21389,11 +21965,14 @@
       <c r="S248" t="s">
         <v>1753</v>
       </c>
+      <c r="T248" t="s">
+        <v>30</v>
+      </c>
       <c r="U248" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1511</v>
       </c>
@@ -21451,11 +22030,14 @@
       <c r="S249" t="s">
         <v>1753</v>
       </c>
+      <c r="T249" t="s">
+        <v>30</v>
+      </c>
       <c r="U249" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="250" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1515</v>
       </c>
@@ -21513,11 +22095,14 @@
       <c r="S250" t="s">
         <v>1754</v>
       </c>
+      <c r="T250" t="s">
+        <v>30</v>
+      </c>
       <c r="U250" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="251" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1518</v>
       </c>
@@ -21575,11 +22160,14 @@
       <c r="S251" t="s">
         <v>30</v>
       </c>
+      <c r="T251" t="s">
+        <v>30</v>
+      </c>
       <c r="U251" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1523</v>
       </c>
@@ -21637,11 +22225,14 @@
       <c r="S252" t="s">
         <v>1755</v>
       </c>
+      <c r="T252" t="s">
+        <v>30</v>
+      </c>
       <c r="U252" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="253" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1528</v>
       </c>
@@ -21699,11 +22290,14 @@
       <c r="S253" t="s">
         <v>1756</v>
       </c>
+      <c r="T253" t="s">
+        <v>30</v>
+      </c>
       <c r="U253" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="254" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1532</v>
       </c>
@@ -21760,6 +22354,9 @@
       </c>
       <c r="S254" t="s">
         <v>1756</v>
+      </c>
+      <c r="T254" t="s">
+        <v>30</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>1461</v>
@@ -21823,11 +22420,14 @@
       <c r="S255" t="s">
         <v>1757</v>
       </c>
+      <c r="T255" t="s">
+        <v>30</v>
+      </c>
       <c r="U255" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1539</v>
       </c>
@@ -21885,11 +22485,14 @@
       <c r="S256" t="s">
         <v>1758</v>
       </c>
+      <c r="T256" t="s">
+        <v>30</v>
+      </c>
       <c r="U256" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1542</v>
       </c>
@@ -21947,11 +22550,14 @@
       <c r="S257" t="s">
         <v>1758</v>
       </c>
+      <c r="T257" t="s">
+        <v>30</v>
+      </c>
       <c r="U257" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1545</v>
       </c>
@@ -22009,11 +22615,14 @@
       <c r="S258" t="s">
         <v>1758</v>
       </c>
+      <c r="T258" t="s">
+        <v>30</v>
+      </c>
       <c r="U258" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1548</v>
       </c>
@@ -22071,11 +22680,14 @@
       <c r="S259" t="s">
         <v>1759</v>
       </c>
+      <c r="T259" t="s">
+        <v>30</v>
+      </c>
       <c r="U259" s="5" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" ht="360" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1550</v>
       </c>
@@ -22133,11 +22745,14 @@
       <c r="S260" t="s">
         <v>30</v>
       </c>
+      <c r="T260" t="s">
+        <v>30</v>
+      </c>
       <c r="U260" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="261" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1558</v>
       </c>
@@ -22195,11 +22810,14 @@
       <c r="S261" t="s">
         <v>30</v>
       </c>
+      <c r="T261" t="s">
+        <v>30</v>
+      </c>
       <c r="U261" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="262" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1563</v>
       </c>
@@ -22257,11 +22875,14 @@
       <c r="S262" t="s">
         <v>30</v>
       </c>
+      <c r="T262" t="s">
+        <v>30</v>
+      </c>
       <c r="U262" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="263" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1568</v>
       </c>
@@ -22319,11 +22940,14 @@
       <c r="S263" t="s">
         <v>30</v>
       </c>
+      <c r="T263" t="s">
+        <v>30</v>
+      </c>
       <c r="U263" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="264" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1571</v>
       </c>
@@ -22381,11 +23005,14 @@
       <c r="S264" t="s">
         <v>30</v>
       </c>
+      <c r="T264" t="s">
+        <v>30</v>
+      </c>
       <c r="U264" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="265" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1577</v>
       </c>
@@ -22443,11 +23070,14 @@
       <c r="S265" t="s">
         <v>30</v>
       </c>
+      <c r="T265" t="s">
+        <v>30</v>
+      </c>
       <c r="U265" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1584</v>
       </c>
@@ -22505,11 +23135,14 @@
       <c r="S266" t="s">
         <v>30</v>
       </c>
+      <c r="T266" t="s">
+        <v>30</v>
+      </c>
       <c r="U266" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1589</v>
       </c>
@@ -22567,11 +23200,14 @@
       <c r="S267" t="s">
         <v>30</v>
       </c>
+      <c r="T267" t="s">
+        <v>30</v>
+      </c>
       <c r="U267" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1597</v>
       </c>
@@ -22629,11 +23265,14 @@
       <c r="S268" t="s">
         <v>30</v>
       </c>
+      <c r="T268" t="s">
+        <v>30</v>
+      </c>
       <c r="U268" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="269" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1601</v>
       </c>
@@ -22691,11 +23330,14 @@
       <c r="S269" t="s">
         <v>30</v>
       </c>
+      <c r="T269" t="s">
+        <v>30</v>
+      </c>
       <c r="U269" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="270" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1607</v>
       </c>
@@ -22753,11 +23395,14 @@
       <c r="S270" t="s">
         <v>30</v>
       </c>
+      <c r="T270" t="s">
+        <v>30</v>
+      </c>
       <c r="U270" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="271" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1612</v>
       </c>
@@ -22815,11 +23460,14 @@
       <c r="S271" t="s">
         <v>1760</v>
       </c>
+      <c r="T271" t="s">
+        <v>30</v>
+      </c>
       <c r="U271" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="272" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1618</v>
       </c>
@@ -22877,11 +23525,14 @@
       <c r="S272" t="s">
         <v>30</v>
       </c>
+      <c r="T272" t="s">
+        <v>30</v>
+      </c>
       <c r="U272" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1624</v>
       </c>
@@ -22937,6 +23588,9 @@
         <v>1556</v>
       </c>
       <c r="S273" t="s">
+        <v>30</v>
+      </c>
+      <c r="T273" t="s">
         <v>30</v>
       </c>
       <c r="U273" s="5" t="s">
@@ -23001,6 +23655,9 @@
       <c r="S274" t="s">
         <v>30</v>
       </c>
+      <c r="T274" t="s">
+        <v>30</v>
+      </c>
       <c r="U274" t="s">
         <v>1414</v>
       </c>
@@ -23063,6 +23720,9 @@
       <c r="S275" t="s">
         <v>30</v>
       </c>
+      <c r="T275" t="s">
+        <v>30</v>
+      </c>
       <c r="U275" t="s">
         <v>1414</v>
       </c>
@@ -23125,6 +23785,9 @@
       <c r="S276" t="s">
         <v>1647</v>
       </c>
+      <c r="T276" t="s">
+        <v>30</v>
+      </c>
       <c r="U276" t="s">
         <v>1648</v>
       </c>
@@ -23187,6 +23850,9 @@
       <c r="S277" t="s">
         <v>1655</v>
       </c>
+      <c r="T277" t="s">
+        <v>30</v>
+      </c>
       <c r="U277" t="s">
         <v>1648</v>
       </c>
@@ -23249,11 +23915,14 @@
       <c r="S278" t="s">
         <v>30</v>
       </c>
+      <c r="T278" t="s">
+        <v>30</v>
+      </c>
       <c r="U278" s="5" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" ht="360" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1663</v>
       </c>
@@ -23310,6 +23979,9 @@
       </c>
       <c r="S279" t="s">
         <v>1762</v>
+      </c>
+      <c r="T279" t="s">
+        <v>30</v>
       </c>
       <c r="U279" t="s">
         <v>1673</v>
@@ -23372,6 +24044,9 @@
       </c>
       <c r="S280" t="s">
         <v>1647</v>
+      </c>
+      <c r="T280" t="s">
+        <v>30</v>
       </c>
       <c r="U280" s="5" t="s">
         <v>1684</v>

--- a/Data/data terbaru.xlsx
+++ b/Data/data terbaru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Proyek1_Kosqu\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F219636B-A5B9-4F59-907E-12CCF049B779}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CA35EA4-CF22-4CDA-A146-5E12CBA6529D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{D0F814F1-1C2B-474E-A368-A9FF1A35487C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5596" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5598" uniqueCount="1765">
   <si>
     <t>ID</t>
   </si>
@@ -5861,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C7683B-4069-4271-9FE2-385F4AE4E0E2}">
   <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="S217" sqref="S217"/>
+    <sheetView tabSelected="1" topLeftCell="C280" workbookViewId="0">
+      <selection activeCell="U280" sqref="U280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17087,6 +17087,9 @@
       <c r="N173" t="s">
         <v>1015</v>
       </c>
+      <c r="O173" t="s">
+        <v>30</v>
+      </c>
       <c r="P173" t="s">
         <v>1016</v>
       </c>
@@ -20734,6 +20737,9 @@
         <v>30</v>
       </c>
       <c r="T229" t="s">
+        <v>30</v>
+      </c>
+      <c r="U229" s="5" t="s">
         <v>30</v>
       </c>
     </row>
